--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2417913.085755573</v>
+        <v>-2420964.329709414</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>324.9938859387414</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.85044061893614</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>198.3077125264701</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>65.05884990877774</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>329.9252058025966</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>308.2979792859471</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7177065691261</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>139.2390209739379</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>198.0533772444729</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>134.7381014859966</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>105.9097513261814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>185.7793708384</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292609</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247749</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734099625</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>277.3956397390357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>42.32069823344351</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>120.470367422281</v>
+        <v>19.19526838335353</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779832</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>47.03477109940183</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652541</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2048.575150942547</v>
+        <v>917.4895987910927</v>
       </c>
       <c r="C2" t="n">
-        <v>1679.612634002135</v>
+        <v>548.527081850681</v>
       </c>
       <c r="D2" t="n">
-        <v>1351.33598153876</v>
+        <v>548.527081850681</v>
       </c>
       <c r="E2" t="n">
-        <v>965.5477289405155</v>
+        <v>548.527081850681</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2046.99742610114</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1694.228770831026</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1694.228770831026</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.575150942547</v>
+        <v>1304.089438855214</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>662.4129741975678</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>372.9958041606071</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>60.60562385912053</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3838260558018</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.297438131635</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.535652769727</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.535652769727</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.766997499613</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="X8" t="n">
-        <v>1345.301239238533</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1947.397620238156</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6129726499586</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6129726499586</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6129726499586</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5045,19 +5045,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,10 +5069,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7429179653792</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5209,40 +5209,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931533</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501059</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1146.80855283258</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>857.3913827956189</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>857.3913827956189</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3913827956189</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.715908442898</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2730.49472550168</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5321,7 +5321,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277726</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176186</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366027</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801004</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.22889502765</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906986</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5592,19 +5592,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320233</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454342</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>490.916444624778</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>490.916444624778</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>340.7998052124423</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626698</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208113</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>718.9059955227954</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>490.916444624778</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>490.916444624778</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5753,10 +5753,10 @@
         <v>451.8458144277731</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464783</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
         <v>2432.390822294612</v>
@@ -5844,10 +5844,10 @@
         <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.2453974100827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>138.3092144821757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>138.3092144821757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>138.3092144821757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.7880996267</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208131</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838525</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838525</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>488.8938622403224</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,40 +5993,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622686</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294611</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353393</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6075,10 +6075,10 @@
         <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.961311426849</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>823.3662772757449</v>
+        <v>402.5293200614552</v>
       </c>
       <c r="C25" t="n">
-        <v>678.9600413094943</v>
+        <v>258.1230840952045</v>
       </c>
       <c r="D25" t="n">
-        <v>678.9600413094943</v>
+        <v>258.1230840952045</v>
       </c>
       <c r="E25" t="n">
-        <v>555.5768946887574</v>
+        <v>258.1230840952045</v>
       </c>
       <c r="F25" t="n">
-        <v>433.2168941525034</v>
+        <v>258.1230840952045</v>
       </c>
       <c r="G25" t="n">
-        <v>290.0440044888786</v>
+        <v>114.9501944315798</v>
       </c>
       <c r="H25" t="n">
-        <v>168.3567646683927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6184,13 +6184,13 @@
         <v>1224.257297123578</v>
       </c>
       <c r="W25" t="n">
-        <v>1176.747427326202</v>
+        <v>959.3700740482734</v>
       </c>
       <c r="X25" t="n">
-        <v>1176.747427326202</v>
+        <v>755.9104701119123</v>
       </c>
       <c r="Y25" t="n">
-        <v>980.4847951443282</v>
+        <v>559.6478379300386</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6364,7 +6364,7 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942654</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7078,7 +7078,7 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7096,22 +7096,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7315,28 +7315,28 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,13 +7351,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7737,13 +7737,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,10 +7810,10 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,22 +8693,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>11.641534435788</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>251.1867816683989</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>297.2174916798517</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3344627260144</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476815</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29.68915568194155</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>256.8982714128301</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>129.4445459436648</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.2278919976466</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>39.93028455063717</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>9.127358597555258</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>103.1003497894877</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696568</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>101.2750990389275</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.06777291779832</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>215.2035797451495</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1414728.027378132</v>
+        <v>1414728.027378133</v>
       </c>
     </row>
     <row r="10">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17505.95456586634</v>
+        <v>17505.95456586633</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.04424660708</v>
-      </c>
       <c r="E2" t="n">
-        <v>19854.08934434917</v>
+        <v>19854.08934434915</v>
       </c>
       <c r="F2" t="n">
-        <v>19854.08934434916</v>
+        <v>19854.08934434915</v>
       </c>
       <c r="G2" t="n">
-        <v>19854.08934434916</v>
+        <v>19854.08934434915</v>
       </c>
       <c r="H2" t="n">
         <v>19854.08934434915</v>
       </c>
       <c r="I2" t="n">
-        <v>20201.46859870611</v>
+        <v>20201.4685987061</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26350,10 +26350,10 @@
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044609689415665e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735911</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>123255.8861912282</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26430,34 +26430,34 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709193</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018532</v>
+        <v>29610.46726018533</v>
       </c>
       <c r="J4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
+        <v>12448.50789975161</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12448.50789975159</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12448.50789975161</v>
+      </c>
+      <c r="N4" t="n">
         <v>12448.5078997516</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12448.50789975161</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12448.5078997516</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12448.50789975162</v>
       </c>
       <c r="O4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-778576.8889033158</v>
+        <v>-778878.8978713899</v>
       </c>
       <c r="C6" t="n">
         <v>-254539.6302092321</v>
@@ -26528,28 +26528,28 @@
         <v>-254539.6302092321</v>
       </c>
       <c r="E6" t="n">
-        <v>-825526.4508998629</v>
+        <v>-825593.6463900888</v>
       </c>
       <c r="F6" t="n">
-        <v>-98149.03690645637</v>
+        <v>-98216.23239668217</v>
       </c>
       <c r="G6" t="n">
-        <v>-98149.03690645641</v>
+        <v>-98216.23239668216</v>
       </c>
       <c r="H6" t="n">
-        <v>-98149.03690645742</v>
+        <v>-98216.23239668216</v>
       </c>
       <c r="I6" t="n">
-        <v>-127261.820938833</v>
+        <v>-127294.2785036231</v>
       </c>
       <c r="J6" t="n">
-        <v>-471613.713080651</v>
+        <v>-471613.7130806509</v>
       </c>
       <c r="K6" t="n">
+        <v>-95086.57950705991</v>
+      </c>
+      <c r="L6" t="n">
         <v>-95086.5795070599</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-95086.57950705991</v>
       </c>
       <c r="M6" t="n">
         <v>-224728.8943460047</v>
@@ -26713,16 +26713,16 @@
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593299</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>125.0320986594317</v>
       </c>
       <c r="F2" t="n">
-        <v>394.0256051227753</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>187.0787934150503</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>24.75783581808639</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>61.43312139252191</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.8379470282007</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9919488199111</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>77.20929938371992</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>151.1875914729401</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>11.92709049416126</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.358561997638116e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844664</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003806</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623187</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574988</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095017</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099053</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746408</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781686</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806942</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502564</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798529</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752251</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.92830182335</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970245</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002923</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987484</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238312</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.44815837589849</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742014</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702022</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.049502431643</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802167</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712208</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553033</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112289</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32564,13 +32564,13 @@
         <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905542</v>
@@ -32795,13 +32795,13 @@
         <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002929</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34457,16 +34457,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O45" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,22 +35413,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>410.4035206551599</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35577,7 +35577,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675428</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>759.2397825566179</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.883616140786</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923315</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>836.1386075100778</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248949</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882185</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.560694390854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636238</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222455</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013316</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525801</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859621</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306611</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934836</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675398</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226395</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451102</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789351</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>359.8836161407865</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L20" t="n">
-        <v>674.9245771183467</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230595</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129117</v>
@@ -36212,13 +36212,13 @@
         <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400139</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
         <v>538.921115830227</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882195</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908547</v>
@@ -36443,13 +36443,13 @@
         <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859627</v>
@@ -36534,7 +36534,7 @@
         <v>259.2417186371503</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299334</v>
+        <v>102.6788860299335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O45" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
